--- a/classifieds.xlsx
+++ b/classifieds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beertino\Desktop\question_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5F2E4-5717-4E3C-9D7F-02CDAECBB403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6E2C2E-03F6-48F2-BAD5-ADE13F3CF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9628F7BF-2219-45EF-B3C4-4AAAA5B6F580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9628F7BF-2219-45EF-B3C4-4AAAA5B6F580}"/>
   </bookViews>
   <sheets>
     <sheet name="TYS" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,11 +202,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -214,6 +242,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A56B7A6-0C42-4C4B-B164-212373D775F4}">
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E242"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4461,8 +4493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A16848-38C5-44DF-ACE2-24BB1DC76B23}">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L242"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15716,8 +15748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6DF2CA-6CD0-4FFB-BD2C-1B4EC8E193CD}">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L242"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15746,9 +15778,10 @@
       <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4"/>
       <c r="I1" t="s">
         <v>32</v>
       </c>
@@ -15775,10 +15808,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="str">
         <f>IF((E2=F2),1,IF(ISBLANK(F2),"NIL",0))</f>
         <v>NIL</v>
       </c>
@@ -15812,10 +15846,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="str">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G66" si="0">IF((E3=F3),1,IF(ISBLANK(F3),"NIL",0))</f>
         <v>NIL</v>
       </c>
@@ -15833,10 +15868,11 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="str">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -15854,10 +15890,11 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="str">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -15875,10 +15912,11 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="str">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -15896,10 +15934,11 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="str">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -15917,10 +15956,11 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="str">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -15938,10 +15978,11 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="str">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -15959,10 +16000,11 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="str">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -15980,10 +16022,11 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="str">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16001,10 +16044,11 @@
       <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="str">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16022,10 +16066,11 @@
       <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="str">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16043,10 +16088,11 @@
       <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" t="str">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16064,10 +16110,11 @@
       <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="str">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16085,10 +16132,11 @@
       <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="str">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16106,10 +16154,11 @@
       <c r="D17" s="1">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G17" t="str">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16127,10 +16176,11 @@
       <c r="D18" s="1">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G18" t="str">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16148,10 +16198,11 @@
       <c r="D19" s="1">
         <v>9</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="str">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16169,10 +16220,11 @@
       <c r="D20" s="1">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="str">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16190,10 +16242,11 @@
       <c r="D21" s="1">
         <v>10</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="str">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16211,10 +16264,11 @@
       <c r="D22" s="1">
         <v>11</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" t="str">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16232,13 +16286,13 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16256,13 +16310,13 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16280,13 +16334,13 @@
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16304,13 +16358,13 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16328,13 +16382,13 @@
       <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16352,13 +16406,13 @@
       <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16376,13 +16430,13 @@
       <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16400,13 +16454,13 @@
       <c r="D30" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16424,13 +16478,13 @@
       <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16448,10 +16502,11 @@
       <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G32" t="str">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16469,13 +16524,13 @@
       <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16493,10 +16548,11 @@
       <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G34" t="str">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16514,13 +16570,13 @@
       <c r="D35" s="1">
         <v>7</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16538,13 +16594,13 @@
       <c r="D36" s="1">
         <v>7</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16562,13 +16618,13 @@
       <c r="D37" s="1">
         <v>8</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16586,13 +16642,13 @@
       <c r="D38" s="1">
         <v>8</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16610,13 +16666,13 @@
       <c r="D39" s="1">
         <v>9</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16634,13 +16690,13 @@
       <c r="D40" s="1">
         <v>9</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16658,13 +16714,13 @@
       <c r="D41" s="1">
         <v>10</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16682,13 +16738,13 @@
       <c r="D42" s="1">
         <v>10</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16706,13 +16762,13 @@
       <c r="D43" s="1">
         <v>11</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16730,13 +16786,13 @@
       <c r="D44" s="1">
         <v>11</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16754,10 +16810,11 @@
       <c r="D45" s="1">
         <v>12</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G45" t="str">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16775,13 +16832,13 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16799,13 +16856,13 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16823,13 +16880,13 @@
       <c r="D48" s="1">
         <v>2</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16847,13 +16904,13 @@
       <c r="D49" s="1">
         <v>2</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16871,13 +16928,13 @@
       <c r="D50" s="1">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16895,13 +16952,13 @@
       <c r="D51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16919,10 +16976,11 @@
       <c r="D52" s="1">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G52" t="str">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -16940,13 +16998,13 @@
       <c r="D53" s="1">
         <v>4</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16964,13 +17022,13 @@
       <c r="D54" s="1">
         <v>5</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -16988,10 +17046,11 @@
       <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G55" t="str">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -17009,13 +17068,13 @@
       <c r="D56" s="1">
         <v>6</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17033,13 +17092,13 @@
       <c r="D57" s="1">
         <v>6</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -17057,13 +17116,13 @@
       <c r="D58" s="1">
         <v>7</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17081,13 +17140,13 @@
       <c r="D59" s="1">
         <v>7</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -17105,13 +17164,13 @@
       <c r="D60" s="1">
         <v>8</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -17129,13 +17188,13 @@
       <c r="D61" s="1">
         <v>8</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -17153,13 +17212,13 @@
       <c r="D62" s="1">
         <v>9</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -17177,10 +17236,11 @@
       <c r="D63" s="1">
         <v>9</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G63" t="str">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -17198,13 +17258,13 @@
       <c r="D64" s="1">
         <v>10</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -17222,13 +17282,13 @@
       <c r="D65" s="1">
         <v>10</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -17246,10 +17306,11 @@
       <c r="D66" s="1">
         <v>11</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G66" t="str">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -17267,10 +17328,11 @@
       <c r="D67" s="1">
         <v>11</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G67" t="str">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="str">
         <f t="shared" ref="G67:G130" si="1">IF((E67=F67),1,IF(ISBLANK(F67),"NIL",0))</f>
         <v>NIL</v>
       </c>
@@ -17288,13 +17350,13 @@
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17312,13 +17374,13 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17336,13 +17398,13 @@
       <c r="D70" s="1">
         <v>2</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17360,13 +17422,13 @@
       <c r="D71" s="1">
         <v>2</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17384,13 +17446,13 @@
       <c r="D72" s="1">
         <v>3</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17408,13 +17470,13 @@
       <c r="D73" s="1">
         <v>3</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17432,13 +17494,13 @@
       <c r="D74" s="1">
         <v>4</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17456,13 +17518,13 @@
       <c r="D75" s="1">
         <v>4</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17480,13 +17542,13 @@
       <c r="D76" s="1">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17504,10 +17566,11 @@
       <c r="D77" s="1">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G77" t="str">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -17525,10 +17588,11 @@
       <c r="D78" s="1">
         <v>6</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="str">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -17546,10 +17610,11 @@
       <c r="D79" s="1">
         <v>6</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G79" t="str">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -17567,13 +17632,13 @@
       <c r="D80" s="1">
         <v>7</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17591,10 +17656,11 @@
       <c r="D81" s="1">
         <v>7</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G81" t="str">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -17612,13 +17678,13 @@
       <c r="D82" s="1">
         <v>8</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17636,13 +17702,13 @@
       <c r="D83" s="1">
         <v>8</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17660,13 +17726,13 @@
       <c r="D84" s="1">
         <v>9</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17684,13 +17750,13 @@
       <c r="D85" s="1">
         <v>9</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17708,13 +17774,13 @@
       <c r="D86" s="1">
         <v>10</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17732,13 +17798,13 @@
       <c r="D87" s="1">
         <v>10</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17756,13 +17822,13 @@
       <c r="D88" s="1">
         <v>11</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17780,13 +17846,13 @@
       <c r="D89" s="1">
         <v>11</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17804,13 +17870,13 @@
       <c r="D90" s="1">
         <v>12</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17828,13 +17894,13 @@
       <c r="D91" s="1">
         <v>1</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17852,13 +17918,13 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17876,13 +17942,13 @@
       <c r="D93" s="1">
         <v>2</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17900,13 +17966,13 @@
       <c r="D94" s="1">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17924,13 +17990,13 @@
       <c r="D95" s="1">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17948,13 +18014,13 @@
       <c r="D96" s="1">
         <v>3</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17972,13 +18038,13 @@
       <c r="D97" s="1">
         <v>4</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17996,10 +18062,11 @@
       <c r="D98" s="1">
         <v>4</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G98" t="str">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -18017,13 +18084,13 @@
       <c r="D99" s="1">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18041,13 +18108,13 @@
       <c r="D100" s="1">
         <v>5</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18065,10 +18132,11 @@
       <c r="D101" s="1">
         <v>6</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" t="str">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -18086,13 +18154,13 @@
       <c r="D102" s="1">
         <v>6</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18110,13 +18178,13 @@
       <c r="D103" s="1">
         <v>7</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18134,13 +18202,13 @@
       <c r="D104" s="1">
         <v>7</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18158,10 +18226,11 @@
       <c r="D105" s="1">
         <v>8</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="str">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -18179,13 +18248,13 @@
       <c r="D106" s="1">
         <v>8</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18203,13 +18272,13 @@
       <c r="D107" s="1">
         <v>9</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18227,13 +18296,13 @@
       <c r="D108" s="1">
         <v>9</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18251,13 +18320,13 @@
       <c r="D109" s="1">
         <v>10</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18275,10 +18344,11 @@
       <c r="D110" s="1">
         <v>10</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G110" t="str">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -18296,13 +18366,13 @@
       <c r="D111" s="1">
         <v>11</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18320,13 +18390,13 @@
       <c r="D112" s="1">
         <v>1</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18344,13 +18414,13 @@
       <c r="D113" s="1">
         <v>1</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18368,13 +18438,13 @@
       <c r="D114" s="1">
         <v>2</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18392,13 +18462,13 @@
       <c r="D115" s="1">
         <v>2</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18416,13 +18486,13 @@
       <c r="D116" s="1">
         <v>3</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18440,13 +18510,13 @@
       <c r="D117" s="1">
         <v>3</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18464,13 +18534,13 @@
       <c r="D118" s="1">
         <v>4</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18488,13 +18558,13 @@
       <c r="D119" s="1">
         <v>4</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18512,13 +18582,13 @@
       <c r="D120" s="1">
         <v>5</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18536,10 +18606,11 @@
       <c r="D121" s="1">
         <v>5</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G121" t="str">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -18557,13 +18628,13 @@
       <c r="D122" s="1">
         <v>6</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18581,13 +18652,13 @@
       <c r="D123" s="1">
         <v>6</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18605,13 +18676,13 @@
       <c r="D124" s="1">
         <v>7</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18629,13 +18700,13 @@
       <c r="D125" s="1">
         <v>7</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18653,13 +18724,13 @@
       <c r="D126" s="1">
         <v>8</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18677,13 +18748,13 @@
       <c r="D127" s="1">
         <v>8</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18701,13 +18772,13 @@
       <c r="D128" s="1">
         <v>9</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18725,13 +18796,13 @@
       <c r="D129" s="1">
         <v>9</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18749,13 +18820,13 @@
       <c r="D130" s="1">
         <v>10</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18773,13 +18844,13 @@
       <c r="D131" s="1">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="4">
         <f t="shared" ref="G131:G194" si="2">IF((E131=F131),1,IF(ISBLANK(F131),"NIL",0))</f>
         <v>1</v>
       </c>
@@ -18797,13 +18868,13 @@
       <c r="D132" s="1">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18821,10 +18892,11 @@
       <c r="D133" s="1">
         <v>1</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G133" t="str">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -18842,13 +18914,13 @@
       <c r="D134" s="1">
         <v>1</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18866,13 +18938,13 @@
       <c r="D135" s="1">
         <v>2</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18890,13 +18962,13 @@
       <c r="D136" s="1">
         <v>2</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18914,13 +18986,13 @@
       <c r="D137" s="1">
         <v>3</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18938,13 +19010,13 @@
       <c r="D138" s="1">
         <v>3</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18962,13 +19034,13 @@
       <c r="D139" s="1">
         <v>4</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -18986,13 +19058,13 @@
       <c r="D140" s="1">
         <v>4</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19010,13 +19082,13 @@
       <c r="D141" s="1">
         <v>5</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19034,13 +19106,13 @@
       <c r="D142" s="1">
         <v>5</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19058,13 +19130,13 @@
       <c r="D143" s="1">
         <v>6</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19082,13 +19154,13 @@
       <c r="D144" s="1">
         <v>6</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19106,13 +19178,13 @@
       <c r="D145" s="1">
         <v>7</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19130,13 +19202,13 @@
       <c r="D146" s="1">
         <v>7</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19154,13 +19226,13 @@
       <c r="D147" s="1">
         <v>8</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19178,13 +19250,13 @@
       <c r="D148" s="1">
         <v>8</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19202,13 +19274,13 @@
       <c r="D149" s="1">
         <v>9</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19226,13 +19298,13 @@
       <c r="D150" s="1">
         <v>9</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19250,13 +19322,13 @@
       <c r="D151" s="1">
         <v>10</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19274,13 +19346,13 @@
       <c r="D152" s="1">
         <v>10</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19298,13 +19370,13 @@
       <c r="D153" s="1">
         <v>11</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19322,13 +19394,13 @@
       <c r="D154" s="1">
         <v>1</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19346,13 +19418,13 @@
       <c r="D155" s="1">
         <v>1</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19370,13 +19442,13 @@
       <c r="D156" s="1">
         <v>2</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19394,13 +19466,13 @@
       <c r="D157" s="1">
         <v>2</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19418,13 +19490,13 @@
       <c r="D158" s="1">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19442,13 +19514,13 @@
       <c r="D159" s="1">
         <v>3</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19466,13 +19538,13 @@
       <c r="D160" s="1">
         <v>4</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19490,13 +19562,13 @@
       <c r="D161" s="1">
         <v>4</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19514,13 +19586,13 @@
       <c r="D162" s="1">
         <v>5</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19538,13 +19610,13 @@
       <c r="D163" s="1">
         <v>5</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19562,13 +19634,13 @@
       <c r="D164" s="1">
         <v>6</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19586,13 +19658,13 @@
       <c r="D165" s="1">
         <v>6</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19610,13 +19682,13 @@
       <c r="D166" s="1">
         <v>7</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19634,13 +19706,13 @@
       <c r="D167" s="1">
         <v>7</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19658,13 +19730,13 @@
       <c r="D168" s="1">
         <v>8</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19682,10 +19754,11 @@
       <c r="D169" s="1">
         <v>8</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G169" t="str">
+      <c r="F169" s="4"/>
+      <c r="G169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -19703,13 +19776,13 @@
       <c r="D170" s="1">
         <v>9</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19727,13 +19800,13 @@
       <c r="D171" s="1">
         <v>9</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19751,13 +19824,13 @@
       <c r="D172" s="1">
         <v>10</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19775,10 +19848,11 @@
       <c r="D173" s="1">
         <v>10</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G173" t="str">
+      <c r="F173" s="4"/>
+      <c r="G173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -19796,10 +19870,11 @@
       <c r="D174" s="1">
         <v>11</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G174" t="str">
+      <c r="F174" s="4"/>
+      <c r="G174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -19817,10 +19892,11 @@
       <c r="D175" s="1">
         <v>11</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G175" t="str">
+      <c r="F175" s="4"/>
+      <c r="G175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -19838,13 +19914,13 @@
       <c r="D176" s="1">
         <v>12</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19862,13 +19938,13 @@
       <c r="D177" s="1">
         <v>1</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19886,10 +19962,11 @@
       <c r="D178" s="1">
         <v>1</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G178" t="str">
+      <c r="F178" s="4"/>
+      <c r="G178" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -19907,10 +19984,11 @@
       <c r="D179" s="1">
         <v>2</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G179" t="str">
+      <c r="F179" s="4"/>
+      <c r="G179" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -19928,13 +20006,13 @@
       <c r="D180" s="1">
         <v>2</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19952,13 +20030,13 @@
       <c r="D181" s="1">
         <v>3</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -19976,13 +20054,13 @@
       <c r="D182" s="1">
         <v>3</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20000,13 +20078,13 @@
       <c r="D183" s="1">
         <v>4</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20024,13 +20102,13 @@
       <c r="D184" s="1">
         <v>4</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20048,13 +20126,13 @@
       <c r="D185" s="1">
         <v>5</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20072,13 +20150,13 @@
       <c r="D186" s="1">
         <v>5</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20096,13 +20174,13 @@
       <c r="D187" s="1">
         <v>6</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20120,13 +20198,13 @@
       <c r="D188" s="1">
         <v>6</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20144,13 +20222,13 @@
       <c r="D189" s="1">
         <v>7</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20168,13 +20246,13 @@
       <c r="D190" s="1">
         <v>7</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20192,13 +20270,13 @@
       <c r="D191" s="1">
         <v>8</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20216,13 +20294,13 @@
       <c r="D192" s="1">
         <v>8</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -20240,13 +20318,13 @@
       <c r="D193" s="1">
         <v>9</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20264,13 +20342,13 @@
       <c r="D194" s="1">
         <v>9</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20288,13 +20366,13 @@
       <c r="D195" s="1">
         <v>10</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="4">
         <f t="shared" ref="G195:G242" si="3">IF((E195=F195),1,IF(ISBLANK(F195),"NIL",0))</f>
         <v>1</v>
       </c>
@@ -20312,13 +20390,13 @@
       <c r="D196" s="1">
         <v>10</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20336,13 +20414,13 @@
       <c r="D197" s="1">
         <v>11</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20360,13 +20438,13 @@
       <c r="D198" s="1">
         <v>1</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20384,13 +20462,13 @@
       <c r="D199" s="1">
         <v>1</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20408,13 +20486,13 @@
       <c r="D200" s="1">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20432,13 +20510,13 @@
       <c r="D201" s="1">
         <v>2</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20456,13 +20534,13 @@
       <c r="D202" s="1">
         <v>3</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20480,13 +20558,13 @@
       <c r="D203" s="1">
         <v>3</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20504,13 +20582,13 @@
       <c r="D204" s="1">
         <v>4</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20528,13 +20606,13 @@
       <c r="D205" s="1">
         <v>4</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20552,13 +20630,13 @@
       <c r="D206" s="1">
         <v>5</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20576,13 +20654,13 @@
       <c r="D207" s="1">
         <v>5</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20600,13 +20678,13 @@
       <c r="D208" s="1">
         <v>6</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20624,13 +20702,13 @@
       <c r="D209" s="1">
         <v>6</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20648,13 +20726,13 @@
       <c r="D210" s="1">
         <v>7</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20672,13 +20750,13 @@
       <c r="D211" s="1">
         <v>7</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20696,13 +20774,13 @@
       <c r="D212" s="1">
         <v>8</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20720,13 +20798,13 @@
       <c r="D213" s="1">
         <v>8</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20744,13 +20822,13 @@
       <c r="D214" s="1">
         <v>9</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20768,13 +20846,13 @@
       <c r="D215" s="1">
         <v>9</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20792,13 +20870,13 @@
       <c r="D216" s="1">
         <v>10</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20816,13 +20894,13 @@
       <c r="D217" s="1">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -20840,13 +20918,13 @@
       <c r="D218" s="1">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20864,13 +20942,13 @@
       <c r="D219" s="1">
         <v>11</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20888,10 +20966,11 @@
       <c r="D220" s="1">
         <v>1</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G220" t="str">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -20909,10 +20988,11 @@
       <c r="D221" s="1">
         <v>1</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G221" t="str">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -20930,10 +21010,11 @@
       <c r="D222" s="1">
         <v>2</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="str">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -20951,10 +21032,11 @@
       <c r="D223" s="1">
         <v>2</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G223" t="str">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -20972,10 +21054,11 @@
       <c r="D224" s="1">
         <v>3</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G224" t="str">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -20993,10 +21076,11 @@
       <c r="D225" s="1">
         <v>3</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G225" t="str">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21014,10 +21098,11 @@
       <c r="D226" s="1">
         <v>4</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G226" t="str">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21035,10 +21120,11 @@
       <c r="D227" s="1">
         <v>4</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G227" t="str">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21056,10 +21142,11 @@
       <c r="D228" s="1">
         <v>5</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G228" t="str">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21077,10 +21164,11 @@
       <c r="D229" s="1">
         <v>5</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E229" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G229" t="str">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21098,10 +21186,11 @@
       <c r="D230" s="1">
         <v>6</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G230" t="str">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21119,10 +21208,11 @@
       <c r="D231" s="1">
         <v>6</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G231" t="str">
+      <c r="F231" s="4"/>
+      <c r="G231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21140,10 +21230,11 @@
       <c r="D232" s="1">
         <v>7</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G232" t="str">
+      <c r="F232" s="4"/>
+      <c r="G232" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21161,10 +21252,11 @@
       <c r="D233" s="1">
         <v>7</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G233" t="str">
+      <c r="F233" s="4"/>
+      <c r="G233" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21182,10 +21274,11 @@
       <c r="D234" s="1">
         <v>8</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G234" t="str">
+      <c r="F234" s="4"/>
+      <c r="G234" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21203,10 +21296,11 @@
       <c r="D235" s="1">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G235" t="str">
+      <c r="F235" s="4"/>
+      <c r="G235" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21224,10 +21318,11 @@
       <c r="D236" s="1">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E236" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G236" t="str">
+      <c r="F236" s="4"/>
+      <c r="G236" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21245,10 +21340,11 @@
       <c r="D237" s="1">
         <v>9</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G237" t="str">
+      <c r="F237" s="4"/>
+      <c r="G237" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21266,10 +21362,11 @@
       <c r="D238" s="1">
         <v>10</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G238" t="str">
+      <c r="F238" s="4"/>
+      <c r="G238" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21287,10 +21384,11 @@
       <c r="D239" s="1">
         <v>10</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G239" t="str">
+      <c r="F239" s="4"/>
+      <c r="G239" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21308,10 +21406,11 @@
       <c r="D240" s="1">
         <v>11</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G240" t="str">
+      <c r="F240" s="4"/>
+      <c r="G240" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21329,10 +21428,11 @@
       <c r="D241" s="1">
         <v>11</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G241" t="str">
+      <c r="F241" s="4"/>
+      <c r="G241" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21350,10 +21450,11 @@
       <c r="D242" s="1">
         <v>12</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G242" t="str">
+      <c r="F242" s="4"/>
+      <c r="G242" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -21368,7 +21469,7 @@
   <dimension ref="A1:L242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L242"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38312,13 +38413,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D494A7-D1E8-478F-B489-10BB8A33CB5B}">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L242"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -38337,9 +38439,10 @@
       <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4"/>
       <c r="I1" t="s">
         <v>32</v>
       </c>
@@ -38366,10 +38469,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="str">
         <f>IF((E2=F2),1,IF(ISBLANK(F2),"NIL",0))</f>
         <v>NIL</v>
       </c>
@@ -38403,10 +38507,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="str">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G66" si="0">IF((E3=F3),1,IF(ISBLANK(F3),"NIL",0))</f>
         <v>NIL</v>
       </c>
@@ -38424,10 +38529,11 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="str">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38445,10 +38551,11 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="str">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38466,10 +38573,11 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="str">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38487,10 +38595,11 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="str">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38508,10 +38617,11 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="str">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38529,10 +38639,11 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="str">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38550,10 +38661,11 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="str">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38571,10 +38683,11 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="str">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38592,10 +38705,11 @@
       <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="str">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38613,10 +38727,11 @@
       <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="str">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38634,10 +38749,11 @@
       <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" t="str">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38655,10 +38771,11 @@
       <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="str">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38676,10 +38793,11 @@
       <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="str">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38697,10 +38815,11 @@
       <c r="D17" s="1">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G17" t="str">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38718,10 +38837,11 @@
       <c r="D18" s="1">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G18" t="str">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38739,10 +38859,11 @@
       <c r="D19" s="1">
         <v>9</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="str">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38760,10 +38881,11 @@
       <c r="D20" s="1">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="str">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38781,10 +38903,11 @@
       <c r="D21" s="1">
         <v>10</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G21" t="str">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38802,10 +38925,11 @@
       <c r="D22" s="1">
         <v>11</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" t="str">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -38823,13 +38947,13 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -38847,13 +38971,13 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -38871,13 +38995,13 @@
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -38895,13 +39019,13 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -38919,13 +39043,13 @@
       <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -38943,13 +39067,13 @@
       <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -38967,13 +39091,13 @@
       <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -38991,13 +39115,13 @@
       <c r="D30" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39015,13 +39139,13 @@
       <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39039,10 +39163,11 @@
       <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G32" t="str">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -39060,13 +39185,13 @@
       <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39084,10 +39209,11 @@
       <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G34" t="str">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -39105,13 +39231,13 @@
       <c r="D35" s="1">
         <v>7</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39129,13 +39255,13 @@
       <c r="D36" s="1">
         <v>7</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39153,13 +39279,13 @@
       <c r="D37" s="1">
         <v>8</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39177,13 +39303,13 @@
       <c r="D38" s="1">
         <v>8</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39201,13 +39327,13 @@
       <c r="D39" s="1">
         <v>9</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39225,13 +39351,13 @@
       <c r="D40" s="1">
         <v>9</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39249,13 +39375,13 @@
       <c r="D41" s="1">
         <v>10</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39273,13 +39399,13 @@
       <c r="D42" s="1">
         <v>10</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39297,13 +39423,13 @@
       <c r="D43" s="1">
         <v>11</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39321,13 +39447,13 @@
       <c r="D44" s="1">
         <v>11</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39345,10 +39471,11 @@
       <c r="D45" s="1">
         <v>12</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G45" t="str">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -39366,13 +39493,13 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39390,13 +39517,13 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39414,13 +39541,13 @@
       <c r="D48" s="1">
         <v>2</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39438,13 +39565,13 @@
       <c r="D49" s="1">
         <v>2</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39462,13 +39589,13 @@
       <c r="D50" s="1">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39486,13 +39613,13 @@
       <c r="D51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39510,10 +39637,11 @@
       <c r="D52" s="1">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G52" t="str">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -39531,13 +39659,13 @@
       <c r="D53" s="1">
         <v>4</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39555,13 +39683,13 @@
       <c r="D54" s="1">
         <v>5</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39579,10 +39707,11 @@
       <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G55" t="str">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -39600,13 +39729,13 @@
       <c r="D56" s="1">
         <v>6</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39624,13 +39753,13 @@
       <c r="D57" s="1">
         <v>6</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39648,13 +39777,13 @@
       <c r="D58" s="1">
         <v>7</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39672,13 +39801,13 @@
       <c r="D59" s="1">
         <v>7</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39696,13 +39825,13 @@
       <c r="D60" s="1">
         <v>8</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39720,13 +39849,13 @@
       <c r="D61" s="1">
         <v>8</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39744,13 +39873,13 @@
       <c r="D62" s="1">
         <v>9</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39768,10 +39897,11 @@
       <c r="D63" s="1">
         <v>9</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G63" t="str">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -39789,13 +39919,13 @@
       <c r="D64" s="1">
         <v>10</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39813,13 +39943,13 @@
       <c r="D65" s="1">
         <v>10</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39837,10 +39967,11 @@
       <c r="D66" s="1">
         <v>11</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G66" t="str">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIL</v>
       </c>
@@ -39858,10 +39989,11 @@
       <c r="D67" s="1">
         <v>11</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G67" t="str">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="str">
         <f t="shared" ref="G67:G130" si="1">IF((E67=F67),1,IF(ISBLANK(F67),"NIL",0))</f>
         <v>NIL</v>
       </c>
@@ -39879,13 +40011,13 @@
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -39903,13 +40035,13 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -39927,13 +40059,13 @@
       <c r="D70" s="1">
         <v>2</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -39951,13 +40083,13 @@
       <c r="D71" s="1">
         <v>2</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -39975,13 +40107,13 @@
       <c r="D72" s="1">
         <v>3</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -39999,13 +40131,13 @@
       <c r="D73" s="1">
         <v>3</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40023,13 +40155,13 @@
       <c r="D74" s="1">
         <v>4</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40047,13 +40179,13 @@
       <c r="D75" s="1">
         <v>4</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40071,13 +40203,13 @@
       <c r="D76" s="1">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40095,10 +40227,11 @@
       <c r="D77" s="1">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G77" t="str">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40116,10 +40249,11 @@
       <c r="D78" s="1">
         <v>6</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="str">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40137,10 +40271,11 @@
       <c r="D79" s="1">
         <v>6</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G79" t="str">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40158,13 +40293,13 @@
       <c r="D80" s="1">
         <v>7</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40182,10 +40317,11 @@
       <c r="D81" s="1">
         <v>7</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G81" t="str">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40203,13 +40339,13 @@
       <c r="D82" s="1">
         <v>8</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40227,13 +40363,13 @@
       <c r="D83" s="1">
         <v>8</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40251,13 +40387,13 @@
       <c r="D84" s="1">
         <v>9</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40275,13 +40411,13 @@
       <c r="D85" s="1">
         <v>9</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40299,13 +40435,13 @@
       <c r="D86" s="1">
         <v>10</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40323,13 +40459,13 @@
       <c r="D87" s="1">
         <v>10</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40347,13 +40483,13 @@
       <c r="D88" s="1">
         <v>11</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40371,13 +40507,13 @@
       <c r="D89" s="1">
         <v>11</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40395,13 +40531,13 @@
       <c r="D90" s="1">
         <v>12</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40419,13 +40555,13 @@
       <c r="D91" s="1">
         <v>1</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40443,13 +40579,13 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40467,13 +40603,13 @@
       <c r="D93" s="1">
         <v>2</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40491,13 +40627,13 @@
       <c r="D94" s="1">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40515,13 +40651,13 @@
       <c r="D95" s="1">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40539,13 +40675,13 @@
       <c r="D96" s="1">
         <v>3</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40563,13 +40699,13 @@
       <c r="D97" s="1">
         <v>4</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40587,10 +40723,11 @@
       <c r="D98" s="1">
         <v>4</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G98" t="str">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40608,13 +40745,13 @@
       <c r="D99" s="1">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40632,13 +40769,13 @@
       <c r="D100" s="1">
         <v>5</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40656,10 +40793,11 @@
       <c r="D101" s="1">
         <v>6</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G101" t="str">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40677,13 +40815,13 @@
       <c r="D102" s="1">
         <v>6</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40701,13 +40839,13 @@
       <c r="D103" s="1">
         <v>7</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40725,13 +40863,13 @@
       <c r="D104" s="1">
         <v>7</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40749,10 +40887,11 @@
       <c r="D105" s="1">
         <v>8</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="str">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40770,13 +40909,13 @@
       <c r="D106" s="1">
         <v>8</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40794,13 +40933,13 @@
       <c r="D107" s="1">
         <v>9</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40818,13 +40957,13 @@
       <c r="D108" s="1">
         <v>9</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40842,13 +40981,13 @@
       <c r="D109" s="1">
         <v>10</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40866,10 +41005,11 @@
       <c r="D110" s="1">
         <v>10</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G110" t="str">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -40887,13 +41027,13 @@
       <c r="D111" s="1">
         <v>11</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40911,13 +41051,13 @@
       <c r="D112" s="1">
         <v>1</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40935,13 +41075,13 @@
       <c r="D113" s="1">
         <v>1</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -40959,13 +41099,13 @@
       <c r="D114" s="1">
         <v>2</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -40983,13 +41123,13 @@
       <c r="D115" s="1">
         <v>2</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41007,13 +41147,13 @@
       <c r="D116" s="1">
         <v>3</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -41031,13 +41171,13 @@
       <c r="D117" s="1">
         <v>3</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -41055,13 +41195,13 @@
       <c r="D118" s="1">
         <v>4</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41079,13 +41219,13 @@
       <c r="D119" s="1">
         <v>4</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41103,13 +41243,13 @@
       <c r="D120" s="1">
         <v>5</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -41127,10 +41267,11 @@
       <c r="D121" s="1">
         <v>5</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G121" t="str">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>NIL</v>
       </c>
@@ -41148,13 +41289,13 @@
       <c r="D122" s="1">
         <v>6</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41172,13 +41313,13 @@
       <c r="D123" s="1">
         <v>6</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41196,13 +41337,13 @@
       <c r="D124" s="1">
         <v>7</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41220,13 +41361,13 @@
       <c r="D125" s="1">
         <v>7</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -41244,13 +41385,13 @@
       <c r="D126" s="1">
         <v>8</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41268,13 +41409,13 @@
       <c r="D127" s="1">
         <v>8</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41292,13 +41433,13 @@
       <c r="D128" s="1">
         <v>9</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41316,13 +41457,13 @@
       <c r="D129" s="1">
         <v>9</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41340,13 +41481,13 @@
       <c r="D130" s="1">
         <v>10</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -41364,13 +41505,13 @@
       <c r="D131" s="1">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="4">
         <f t="shared" ref="G131:G194" si="2">IF((E131=F131),1,IF(ISBLANK(F131),"NIL",0))</f>
         <v>0</v>
       </c>
@@ -41388,13 +41529,13 @@
       <c r="D132" s="1">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41412,10 +41553,11 @@
       <c r="D133" s="1">
         <v>1</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G133" t="str">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -41433,13 +41575,13 @@
       <c r="D134" s="1">
         <v>1</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41457,13 +41599,13 @@
       <c r="D135" s="1">
         <v>2</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41481,13 +41623,13 @@
       <c r="D136" s="1">
         <v>2</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41505,13 +41647,13 @@
       <c r="D137" s="1">
         <v>3</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41529,13 +41671,13 @@
       <c r="D138" s="1">
         <v>3</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41553,13 +41695,13 @@
       <c r="D139" s="1">
         <v>4</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41577,13 +41719,13 @@
       <c r="D140" s="1">
         <v>4</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41601,13 +41743,13 @@
       <c r="D141" s="1">
         <v>5</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41625,13 +41767,13 @@
       <c r="D142" s="1">
         <v>5</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41649,13 +41791,13 @@
       <c r="D143" s="1">
         <v>6</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41673,13 +41815,13 @@
       <c r="D144" s="1">
         <v>6</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41697,13 +41839,13 @@
       <c r="D145" s="1">
         <v>7</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41721,13 +41863,13 @@
       <c r="D146" s="1">
         <v>7</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41745,13 +41887,13 @@
       <c r="D147" s="1">
         <v>8</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41769,13 +41911,13 @@
       <c r="D148" s="1">
         <v>8</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41793,13 +41935,13 @@
       <c r="D149" s="1">
         <v>9</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41817,13 +41959,13 @@
       <c r="D150" s="1">
         <v>9</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41841,13 +41983,13 @@
       <c r="D151" s="1">
         <v>10</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41865,13 +42007,13 @@
       <c r="D152" s="1">
         <v>10</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41889,13 +42031,13 @@
       <c r="D153" s="1">
         <v>11</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41913,13 +42055,13 @@
       <c r="D154" s="1">
         <v>1</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41937,13 +42079,13 @@
       <c r="D155" s="1">
         <v>1</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -41961,13 +42103,13 @@
       <c r="D156" s="1">
         <v>2</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -41985,13 +42127,13 @@
       <c r="D157" s="1">
         <v>2</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42009,13 +42151,13 @@
       <c r="D158" s="1">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42033,13 +42175,13 @@
       <c r="D159" s="1">
         <v>3</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42057,13 +42199,13 @@
       <c r="D160" s="1">
         <v>4</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42081,13 +42223,13 @@
       <c r="D161" s="1">
         <v>4</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42105,13 +42247,13 @@
       <c r="D162" s="1">
         <v>5</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42129,13 +42271,13 @@
       <c r="D163" s="1">
         <v>5</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42153,13 +42295,13 @@
       <c r="D164" s="1">
         <v>6</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42177,13 +42319,13 @@
       <c r="D165" s="1">
         <v>6</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42201,13 +42343,13 @@
       <c r="D166" s="1">
         <v>7</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42225,13 +42367,13 @@
       <c r="D167" s="1">
         <v>7</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42249,13 +42391,13 @@
       <c r="D168" s="1">
         <v>8</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42273,10 +42415,11 @@
       <c r="D169" s="1">
         <v>8</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G169" t="str">
+      <c r="F169" s="4"/>
+      <c r="G169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -42294,13 +42437,13 @@
       <c r="D170" s="1">
         <v>9</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42318,13 +42461,13 @@
       <c r="D171" s="1">
         <v>9</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42342,13 +42485,13 @@
       <c r="D172" s="1">
         <v>10</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42366,10 +42509,11 @@
       <c r="D173" s="1">
         <v>10</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G173" t="str">
+      <c r="F173" s="4"/>
+      <c r="G173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -42387,10 +42531,11 @@
       <c r="D174" s="1">
         <v>11</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G174" t="str">
+      <c r="F174" s="4"/>
+      <c r="G174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -42408,10 +42553,11 @@
       <c r="D175" s="1">
         <v>11</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G175" t="str">
+      <c r="F175" s="4"/>
+      <c r="G175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -42429,13 +42575,13 @@
       <c r="D176" s="1">
         <v>12</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42453,13 +42599,13 @@
       <c r="D177" s="1">
         <v>1</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42477,10 +42623,11 @@
       <c r="D178" s="1">
         <v>1</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G178" t="str">
+      <c r="F178" s="4"/>
+      <c r="G178" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -42498,10 +42645,11 @@
       <c r="D179" s="1">
         <v>2</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G179" t="str">
+      <c r="F179" s="4"/>
+      <c r="G179" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NIL</v>
       </c>
@@ -42519,13 +42667,13 @@
       <c r="D180" s="1">
         <v>2</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42543,13 +42691,13 @@
       <c r="D181" s="1">
         <v>3</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42567,13 +42715,13 @@
       <c r="D182" s="1">
         <v>3</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42591,13 +42739,13 @@
       <c r="D183" s="1">
         <v>4</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42615,13 +42763,13 @@
       <c r="D184" s="1">
         <v>4</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42639,13 +42787,13 @@
       <c r="D185" s="1">
         <v>5</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42663,13 +42811,13 @@
       <c r="D186" s="1">
         <v>5</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42687,13 +42835,13 @@
       <c r="D187" s="1">
         <v>6</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42711,13 +42859,13 @@
       <c r="D188" s="1">
         <v>6</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42735,13 +42883,13 @@
       <c r="D189" s="1">
         <v>7</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42759,13 +42907,13 @@
       <c r="D190" s="1">
         <v>7</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42783,13 +42931,13 @@
       <c r="D191" s="1">
         <v>8</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -42807,13 +42955,13 @@
       <c r="D192" s="1">
         <v>8</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42831,13 +42979,13 @@
       <c r="D193" s="1">
         <v>9</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42855,13 +43003,13 @@
       <c r="D194" s="1">
         <v>9</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -42879,13 +43027,13 @@
       <c r="D195" s="1">
         <v>10</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="4">
         <f t="shared" ref="G195:G242" si="3">IF((E195=F195),1,IF(ISBLANK(F195),"NIL",0))</f>
         <v>1</v>
       </c>
@@ -42903,13 +43051,13 @@
       <c r="D196" s="1">
         <v>10</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -42927,13 +43075,13 @@
       <c r="D197" s="1">
         <v>11</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -42951,13 +43099,13 @@
       <c r="D198" s="1">
         <v>1</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -42975,13 +43123,13 @@
       <c r="D199" s="1">
         <v>1</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -42999,13 +43147,13 @@
       <c r="D200" s="1">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43023,13 +43171,13 @@
       <c r="D201" s="1">
         <v>2</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -43047,13 +43195,13 @@
       <c r="D202" s="1">
         <v>3</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -43071,13 +43219,13 @@
       <c r="D203" s="1">
         <v>3</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43095,13 +43243,13 @@
       <c r="D204" s="1">
         <v>4</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43119,13 +43267,13 @@
       <c r="D205" s="1">
         <v>4</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43143,13 +43291,13 @@
       <c r="D206" s="1">
         <v>5</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -43167,13 +43315,13 @@
       <c r="D207" s="1">
         <v>5</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43191,13 +43339,13 @@
       <c r="D208" s="1">
         <v>6</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43215,13 +43363,13 @@
       <c r="D209" s="1">
         <v>6</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -43239,13 +43387,13 @@
       <c r="D210" s="1">
         <v>7</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43263,13 +43411,13 @@
       <c r="D211" s="1">
         <v>7</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43287,13 +43435,13 @@
       <c r="D212" s="1">
         <v>8</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -43311,13 +43459,13 @@
       <c r="D213" s="1">
         <v>8</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43335,13 +43483,13 @@
       <c r="D214" s="1">
         <v>9</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43359,13 +43507,13 @@
       <c r="D215" s="1">
         <v>9</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43383,13 +43531,13 @@
       <c r="D216" s="1">
         <v>10</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43407,13 +43555,13 @@
       <c r="D217" s="1">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -43431,13 +43579,13 @@
       <c r="D218" s="1">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -43455,13 +43603,13 @@
       <c r="D219" s="1">
         <v>11</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -43479,10 +43627,11 @@
       <c r="D220" s="1">
         <v>1</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G220" t="str">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43500,10 +43649,11 @@
       <c r="D221" s="1">
         <v>1</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G221" t="str">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43521,10 +43671,11 @@
       <c r="D222" s="1">
         <v>2</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="str">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43542,10 +43693,11 @@
       <c r="D223" s="1">
         <v>2</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G223" t="str">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43563,10 +43715,11 @@
       <c r="D224" s="1">
         <v>3</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G224" t="str">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43584,10 +43737,11 @@
       <c r="D225" s="1">
         <v>3</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G225" t="str">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43605,10 +43759,11 @@
       <c r="D226" s="1">
         <v>4</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G226" t="str">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43626,10 +43781,11 @@
       <c r="D227" s="1">
         <v>4</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="str">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43647,10 +43803,11 @@
       <c r="D228" s="1">
         <v>5</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G228" t="str">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43668,10 +43825,11 @@
       <c r="D229" s="1">
         <v>5</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E229" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G229" t="str">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43689,10 +43847,11 @@
       <c r="D230" s="1">
         <v>6</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G230" t="str">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43710,10 +43869,11 @@
       <c r="D231" s="1">
         <v>6</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G231" t="str">
+      <c r="F231" s="4"/>
+      <c r="G231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43731,10 +43891,11 @@
       <c r="D232" s="1">
         <v>7</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G232" t="str">
+      <c r="F232" s="4"/>
+      <c r="G232" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43752,10 +43913,11 @@
       <c r="D233" s="1">
         <v>7</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G233" t="str">
+      <c r="F233" s="4"/>
+      <c r="G233" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43773,10 +43935,11 @@
       <c r="D234" s="1">
         <v>8</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G234" t="str">
+      <c r="F234" s="4"/>
+      <c r="G234" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43794,10 +43957,11 @@
       <c r="D235" s="1">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G235" t="str">
+      <c r="F235" s="4"/>
+      <c r="G235" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43815,10 +43979,11 @@
       <c r="D236" s="1">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E236" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G236" t="str">
+      <c r="F236" s="4"/>
+      <c r="G236" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43836,10 +44001,11 @@
       <c r="D237" s="1">
         <v>9</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G237" t="str">
+      <c r="F237" s="4"/>
+      <c r="G237" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43857,10 +44023,11 @@
       <c r="D238" s="1">
         <v>10</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G238" t="str">
+      <c r="F238" s="4"/>
+      <c r="G238" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43878,10 +44045,11 @@
       <c r="D239" s="1">
         <v>10</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G239" t="str">
+      <c r="F239" s="4"/>
+      <c r="G239" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43899,10 +44067,11 @@
       <c r="D240" s="1">
         <v>11</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G240" t="str">
+      <c r="F240" s="4"/>
+      <c r="G240" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43920,10 +44089,11 @@
       <c r="D241" s="1">
         <v>11</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G241" t="str">
+      <c r="F241" s="4"/>
+      <c r="G241" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
@@ -43941,10 +44111,11 @@
       <c r="D242" s="1">
         <v>12</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G242" t="str">
+      <c r="F242" s="4"/>
+      <c r="G242" s="4" t="str">
         <f t="shared" si="3"/>
         <v>NIL</v>
       </c>
